--- a/medicine/Psychotrope/Palmela_(DOC)/Palmela_(DOC).xlsx
+++ b/medicine/Psychotrope/Palmela_(DOC)/Palmela_(DOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le palmela est une appellation d'origine (DOC) portugaise produite dans le terroir viticole de Palmela, sur les concelhos de Montijo, Palmela, Setúbal et sur une partie de celui de Sesimbra.
 </t>
@@ -511,7 +523,9 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce vignoble est situé près de l'estuaire de la Tage, au sud-est de Lisbonne. 
 </t>
@@ -542,7 +556,9 @@
           <t>Types de vin</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses vins peuvent être rouge, blanc, rosé, ou vinifié en mousseux ou vin doux naturel. 
 </t>
@@ -573,7 +589,9 @@
           <t>Encépagement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cépages pour les rouges et les rosés sont : Castelão, Alfrocheiro, Bastardo, Cabernet Sauvignon et Trincadeira (ou Tinta amarela). Pour les blancs : Arinto (Pedernã), Fernão Pires (Maria Gomes), Moscatel galego branco, Moscatel graúdo, Moscatel roxo, Rabo de Ovelha, Síria (ou Roupeiro), Tamarez et Vital.
 </t>
